--- a/biology/Botanique/Wildemania/Wildemania.xlsx
+++ b/biology/Botanique/Wildemania/Wildemania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wildemania est un genre d'algues rouges de la famille des Bangiaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (6 déc. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (6 déc. 2012) :
 Wildemania abyssicola (Kjellman) Mols-Mortensen &amp; J. Brodie
 Wildemania amethystea (Kützing) De Toni (Sans vérification)
 Wildemania amplissima (Kjellman) Foslie (espèce type)
@@ -524,17 +538,17 @@
 Wildemania schizophylla (Hollenberg) S.C.Lindstrom
 Wildemania umbilicalis (Linnaeus) De Toni (Sans vérification)
 Wildemania variegata (Kjellman) De Toni
-Selon Catalogue of Life                                   (6 déc. 2012)[2] :
+Selon Catalogue of Life                                   (6 déc. 2012) :
 Wildemania amethystea
 Wildemania columbina
 Wildemania umbilicalis
-Selon NCBI  (6 déc. 2012)[3] :
+Selon NCBI  (6 déc. 2012) :
 Wildemania abyssicola
 Wildemania amplissima
 Wildemania miniata
 Wildemania schizophylla
 Wildemania variegata
-Selon World Register of Marine Species                               (6 déc. 2012)[4] :
+Selon World Register of Marine Species                               (6 déc. 2012) :
 Wildemania abyssicola (Kjellman) Mols-Mortensen &amp; J. Brodie, 2012
 Wildemania amethystea (Kützing) De Toni, 1897
 Wildemania amplissima (Kjellman) Foslie, 1891
